--- a/docss/trend/france/E_neuron.xlsx
+++ b/docss/trend/france/E_neuron.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Elena\Desktop\IC3-Design\docs\trend\france\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ELENA\Documents\IC3\ic3desarrollo\docss\trend\france\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -221,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -234,9 +234,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1581,7 +1578,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E19" sqref="A1:E19"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1605,14 +1602,14 @@
       <c r="A2" s="5">
         <v>2002</v>
       </c>
-      <c r="B2" s="6">
-        <v>1.5948431014548987</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1.8445932785980403</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1.3973084576427937</v>
+      <c r="B2" s="5">
+        <v>1.595</v>
+      </c>
+      <c r="C2" s="5">
+        <v>1.845</v>
+      </c>
+      <c r="D2" s="5">
+        <v>1.397</v>
       </c>
       <c r="E2" s="5"/>
     </row>
@@ -1620,14 +1617,14 @@
       <c r="A3" s="5">
         <v>2003</v>
       </c>
-      <c r="B3" s="6">
-        <v>1.6681820100639015</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1.9220120068639517</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1.4428069095592946</v>
+      <c r="B3" s="5">
+        <v>1.6679999999999999</v>
+      </c>
+      <c r="C3" s="5">
+        <v>1.9219999999999999</v>
+      </c>
+      <c r="D3" s="5">
+        <v>1.4430000000000001</v>
       </c>
       <c r="E3" s="5"/>
     </row>
@@ -1635,14 +1632,14 @@
       <c r="A4" s="5">
         <v>2004</v>
       </c>
-      <c r="B4" s="6">
-        <v>1.5963538493961096</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1.9897259867284447</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1.2594392560422421</v>
+      <c r="B4" s="5">
+        <v>1.5960000000000001</v>
+      </c>
+      <c r="C4" s="5">
+        <v>1.99</v>
+      </c>
+      <c r="D4" s="5">
+        <v>1.2589999999999999</v>
       </c>
       <c r="E4" s="5"/>
     </row>
@@ -1650,14 +1647,14 @@
       <c r="A5" s="5">
         <v>2005</v>
       </c>
-      <c r="B5" s="6">
-        <v>1.6269924747757614</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1.8850139090791345</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1.4134081380907446</v>
+      <c r="B5" s="5">
+        <v>1.627</v>
+      </c>
+      <c r="C5" s="5">
+        <v>1.885</v>
+      </c>
+      <c r="D5" s="5">
+        <v>1.413</v>
       </c>
       <c r="E5" s="5"/>
     </row>
@@ -1665,14 +1662,14 @@
       <c r="A6" s="5">
         <v>2006</v>
       </c>
-      <c r="B6" s="6">
-        <v>1.669730007997714</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2.1330812878441066</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1.2856234002392739</v>
+      <c r="B6">
+        <v>1.67</v>
+      </c>
+      <c r="C6">
+        <v>2.133</v>
+      </c>
+      <c r="D6">
+        <v>1.286</v>
       </c>
       <c r="E6" s="5"/>
     </row>
@@ -1680,14 +1677,14 @@
       <c r="A7" s="5">
         <v>2007</v>
       </c>
-      <c r="B7" s="6">
-        <v>1.6640074483584613</v>
-      </c>
-      <c r="C7" s="6">
-        <v>2.0542601118795574</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1.3331836403813213</v>
+      <c r="B7">
+        <v>1.6639999999999999</v>
+      </c>
+      <c r="C7">
+        <v>2.0539999999999998</v>
+      </c>
+      <c r="D7">
+        <v>1.333</v>
       </c>
       <c r="E7" s="5"/>
     </row>
@@ -1695,14 +1692,14 @@
       <c r="A8" s="5">
         <v>2008</v>
       </c>
-      <c r="B8" s="6">
-        <v>1.7013384494930506</v>
-      </c>
-      <c r="C8" s="6">
-        <v>2.0588433314114809</v>
-      </c>
-      <c r="D8" s="6">
-        <v>1.4104819681961089</v>
+      <c r="B8">
+        <v>1.7010000000000001</v>
+      </c>
+      <c r="C8">
+        <v>2.0590000000000002</v>
+      </c>
+      <c r="D8">
+        <v>1.41</v>
       </c>
       <c r="E8" s="5"/>
     </row>
@@ -1710,14 +1707,14 @@
       <c r="A9" s="5">
         <v>2009</v>
       </c>
-      <c r="B9" s="6">
-        <v>1.7321395036997274</v>
-      </c>
-      <c r="C9" s="6">
-        <v>2.143085457617417</v>
-      </c>
-      <c r="D9" s="6">
-        <v>1.3976065344177186</v>
+      <c r="B9">
+        <v>1.732</v>
+      </c>
+      <c r="C9">
+        <v>2.1429999999999998</v>
+      </c>
+      <c r="D9">
+        <v>1.3979999999999999</v>
       </c>
       <c r="E9" s="5"/>
     </row>
@@ -1725,14 +1722,14 @@
       <c r="A10" s="5">
         <v>2010</v>
       </c>
-      <c r="B10" s="6">
-        <v>1.6690392068121582</v>
-      </c>
-      <c r="C10" s="6">
-        <v>1.9938824989367276</v>
-      </c>
-      <c r="D10" s="6">
-        <v>1.3997067485470325</v>
+      <c r="B10">
+        <v>1.669</v>
+      </c>
+      <c r="C10">
+        <v>1.994</v>
+      </c>
+      <c r="D10">
+        <v>1.4</v>
       </c>
       <c r="E10" s="5"/>
     </row>
@@ -1740,14 +1737,14 @@
       <c r="A11" s="5">
         <v>2011</v>
       </c>
-      <c r="B11" s="6">
-        <v>1.7972952271811664</v>
-      </c>
-      <c r="C11" s="6">
-        <v>2.1616104079876095</v>
-      </c>
-      <c r="D11" s="6">
-        <v>1.4972554007545114</v>
+      <c r="B11">
+        <v>1.7969999999999999</v>
+      </c>
+      <c r="C11">
+        <v>2.1619999999999999</v>
+      </c>
+      <c r="D11">
+        <v>1.4970000000000001</v>
       </c>
       <c r="E11" s="5"/>
     </row>
@@ -1755,14 +1752,14 @@
       <c r="A12" s="5">
         <v>2012</v>
       </c>
-      <c r="B12" s="6">
-        <v>1.614314794074744</v>
-      </c>
-      <c r="C12" s="6">
-        <v>1.9351759552955627</v>
-      </c>
-      <c r="D12" s="6">
-        <v>1.3501566350460052</v>
+      <c r="B12">
+        <v>1.6140000000000001</v>
+      </c>
+      <c r="C12">
+        <v>1.9350000000000001</v>
+      </c>
+      <c r="D12">
+        <v>1.35</v>
       </c>
       <c r="E12" s="5"/>
     </row>
@@ -1770,14 +1767,14 @@
       <c r="A13" s="5">
         <v>2013</v>
       </c>
-      <c r="B13" s="6">
-        <v>1.754528999212198</v>
-      </c>
-      <c r="C13" s="6">
-        <v>2.1304077624808997</v>
-      </c>
-      <c r="D13" s="6">
-        <v>1.4310707317199558</v>
+      <c r="B13">
+        <v>1.7549999999999999</v>
+      </c>
+      <c r="C13">
+        <v>2.13</v>
+      </c>
+      <c r="D13">
+        <v>1.431</v>
       </c>
       <c r="E13" s="5"/>
     </row>
@@ -1785,14 +1782,14 @@
       <c r="A14" s="5">
         <v>2014</v>
       </c>
-      <c r="B14" s="6">
-        <v>1.729236600571312</v>
-      </c>
-      <c r="C14" s="6">
-        <v>2.1625874356832355</v>
-      </c>
-      <c r="D14" s="6">
-        <v>1.3657207319047302</v>
+      <c r="B14">
+        <v>1.7290000000000001</v>
+      </c>
+      <c r="C14">
+        <v>2.1629999999999998</v>
+      </c>
+      <c r="D14">
+        <v>1.3660000000000001</v>
       </c>
       <c r="E14" s="5"/>
     </row>
@@ -1805,30 +1802,18 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="5"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="5"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
       <c r="E17" s="5"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="5"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="5"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
       <c r="E19" s="5"/>
     </row>
   </sheetData>
